--- a/model_list.xlsx
+++ b/model_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blain\Documents\dynamic_bulldoze2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0897D3-7847-441B-80F7-2B083D2E3D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E12696-536D-4096-B352-7A436350B763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
+    <workbookView xWindow="28905" yWindow="225" windowWidth="37785" windowHeight="18990" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="81">
   <si>
     <t>Model Name</t>
   </si>
@@ -265,6 +265,18 @@
   </si>
   <si>
     <t>all max tree warnings</t>
+  </si>
+  <si>
+    <t>model26</t>
+  </si>
+  <si>
+    <t>model27</t>
+  </si>
+  <si>
+    <t>model28</t>
+  </si>
+  <si>
+    <t>model29</t>
   </si>
 </sst>
 </file>
@@ -665,8 +677,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}" name="Table1" displayName="Table1" ref="A1:S26" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:S26" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}" name="Table1" displayName="Table1" ref="A1:S29" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:S29" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{DEA7E344-1BCD-4196-A409-53BB68C8457E}" name="Model Name" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{1C39A7BC-A66E-49C6-8296-E0297D895ADC}" name="Latent Names" dataDxfId="17"/>
@@ -989,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F8C2AC-707C-4266-B23C-BD41ADE3BA75}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2512,6 +2524,202 @@
         <v>76</v>
       </c>
     </row>
+    <row r="27" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J27" s="1">
+        <v>12</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J28" s="1">
+        <v>12</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J29" s="1">
+        <v>12</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J30" s="1">
+        <v>12</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model_list.xlsx
+++ b/model_list.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blain\Documents\dynamic_bulldoze2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E12696-536D-4096-B352-7A436350B763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D102E00F-8FC2-488F-9E09-5FAD392605F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28905" yWindow="225" windowWidth="37785" windowHeight="18990" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
+    <workbookView xWindow="6435" yWindow="465" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Model List" sheetId="1" r:id="rId1"/>
+    <sheet name="Thoughts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="86">
   <si>
     <t>Model Name</t>
   </si>
@@ -277,6 +278,21 @@
   </si>
   <si>
     <t>model29</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Thought</t>
+  </si>
+  <si>
+    <t>Model 26 and 28 are the same but vars flipped, previously this resulted in different expertese estimates, but this now seem fixed</t>
+  </si>
+  <si>
+    <t>Good or bad</t>
+  </si>
+  <si>
+    <t>Model 26 and 27 are the same, but increasing adaptive delta resulted in no divergent transitions (ditto for 28 and 29)</t>
   </si>
 </sst>
 </file>
@@ -333,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -353,6 +369,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,8 +1023,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F8C2AC-707C-4266-B23C-BD41ADE3BA75}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="2775" ySplit="675" topLeftCell="A13" activePane="bottomRight"/>
+      <selection activeCell="O33" sqref="O33"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,10 +2591,18 @@
       <c r="N27" s="1">
         <v>3000</v>
       </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
+      <c r="O27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>15</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -2616,10 +2648,18 @@
       <c r="N28" s="1">
         <v>3000</v>
       </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
+      <c r="O28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -2665,10 +2705,18 @@
       <c r="N29" s="1">
         <v>3000</v>
       </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>8</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -2728,4 +2776,57 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E49AD0-618B-4402-88D5-92A9081F9A87}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>44588</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>44588</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/model_list.xlsx
+++ b/model_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blain\Documents\dynamic_bulldoze2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D102E00F-8FC2-488F-9E09-5FAD392605F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91BF0E1-3377-4298-BFDA-72C85B06A345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="465" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
+    <workbookView xWindow="30960" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
   </bookViews>
   <sheets>
     <sheet name="Model List" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="95">
   <si>
     <t>Model Name</t>
   </si>
@@ -293,6 +293,33 @@
   </si>
   <si>
     <t>Model 26 and 27 are the same, but increasing adaptive delta resulted in no divergent transitions (ditto for 28 and 29)</t>
+  </si>
+  <si>
+    <t>model30</t>
+  </si>
+  <si>
+    <t>model31</t>
+  </si>
+  <si>
+    <t>expertese, autonomy</t>
+  </si>
+  <si>
+    <t>expertese = masters + salary, autonomy = appt + expert + advisor</t>
+  </si>
+  <si>
+    <t>masters = 1, appt = 1</t>
+  </si>
+  <si>
+    <t>model32</t>
+  </si>
+  <si>
+    <t>autonomy, expertese</t>
+  </si>
+  <si>
+    <t>autonomy = appt + expert + advisor, expertese = masters + salary</t>
+  </si>
+  <si>
+    <t>appt = 1, masters = 1</t>
   </si>
 </sst>
 </file>
@@ -1021,14 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F8C2AC-707C-4266-B23C-BD41ADE3BA75}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="2775" ySplit="675" topLeftCell="A13" activePane="bottomRight"/>
-      <selection activeCell="O33" sqref="O33"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="N25" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2762,11 +2785,161 @@
       <c r="N30" s="1">
         <v>3000</v>
       </c>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
+      <c r="O30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>12</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J32" s="1">
+        <v>12</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J33">
+        <v>12</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" s="1">
+        <v>3000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2782,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E49AD0-618B-4402-88D5-92A9081F9A87}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/model_list.xlsx
+++ b/model_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blain\Documents\dynamic_bulldoze2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91BF0E1-3377-4298-BFDA-72C85B06A345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC6416F-2AEC-401C-B7BE-075863AB1292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30960" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
   </bookViews>
   <sheets>
     <sheet name="Model List" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="109">
   <si>
     <t>Model Name</t>
   </si>
@@ -320,6 +320,48 @@
   </si>
   <si>
     <t>appt = 1, masters = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuck on expert </t>
+  </si>
+  <si>
+    <t>model33</t>
+  </si>
+  <si>
+    <t>expert = 1</t>
+  </si>
+  <si>
+    <t>model34</t>
+  </si>
+  <si>
+    <t>autonomy =  advisor + appt + expert</t>
+  </si>
+  <si>
+    <t>autonomy = expert + advisor + appt</t>
+  </si>
+  <si>
+    <t>advisor = 1</t>
+  </si>
+  <si>
+    <t>model35</t>
+  </si>
+  <si>
+    <t>autonomy =  appt + expert + advisor</t>
+  </si>
+  <si>
+    <t>model36</t>
+  </si>
+  <si>
+    <t>masters = 0, appt = 0</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>model37</t>
+  </si>
+  <si>
+    <t>appt = 0, masters = 0</t>
   </si>
 </sst>
 </file>
@@ -376,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -400,6 +442,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F8C2AC-707C-4266-B23C-BD41ADE3BA75}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N25" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,10 +2887,18 @@
       <c r="N31" s="1">
         <v>3000</v>
       </c>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
+      <c r="O31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -2897,7 +2950,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
@@ -2913,19 +2966,19 @@
       <c r="E33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="4">
         <v>0</v>
       </c>
       <c r="I33" s="1">
         <v>6000</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1">
         <v>12</v>
       </c>
       <c r="K33" s="1">
@@ -2940,6 +2993,256 @@
       <c r="N33" s="1">
         <v>3000</v>
       </c>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J34" s="1">
+        <v>12</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J35" s="1">
+        <v>12</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J36" s="1">
+        <v>12</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J37" s="1">
+        <v>12</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J38" s="1">
+        <v>12</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/model_list.xlsx
+++ b/model_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blain\Documents\dynamic_bulldoze2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC6416F-2AEC-401C-B7BE-075863AB1292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF49AFA-1F73-49C6-98B6-D2824907240F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
   </bookViews>
   <sheets>
     <sheet name="Model List" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="115">
   <si>
     <t>Model Name</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Nature, Health, Education</t>
   </si>
   <si>
-    <t>Min Employees</t>
-  </si>
-  <si>
     <t>Complete?</t>
   </si>
   <si>
@@ -362,6 +359,27 @@
   </si>
   <si>
     <t>appt = 0, masters = 0</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>model38</t>
+  </si>
+  <si>
+    <t>Okay, might be stuck on expert</t>
+  </si>
+  <si>
+    <t>Model 31 and 32 are the same except for the order of latent variables. The results look similar, although some weird chain behavior in model 31</t>
+  </si>
+  <si>
+    <t>Slightly strange that it doesn’t perfectly trask experts</t>
+  </si>
+  <si>
+    <t>Models 33, 34, and 35 are the same except for the order of manifest variables, two look the same and have converged, 34 did not but looks like it was approaching the same solution. It seem like the tracking of expert might be the right solution</t>
+  </si>
+  <si>
+    <t>mixed</t>
   </si>
 </sst>
 </file>
@@ -418,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -442,9 +460,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,8 +784,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}" name="Table1" displayName="Table1" ref="A1:S29" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:S29" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}" name="Table1" displayName="Table1" ref="A1:S39" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:S39" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{DEA7E344-1BCD-4196-A409-53BB68C8457E}" name="Model Name" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{1C39A7BC-A66E-49C6-8296-E0297D895ADC}" name="Latent Names" dataDxfId="17"/>
@@ -785,7 +800,7 @@
     <tableColumn id="11" xr3:uid="{9CFF8B16-FF31-4C42-9081-B4E778E0C39A}" name="Adaptive Delta" dataDxfId="8"/>
     <tableColumn id="12" xr3:uid="{41F51882-A1FA-42CC-94E4-87EFD6F6EB60}" name="years" dataDxfId="7"/>
     <tableColumn id="13" xr3:uid="{BBEC60D9-FD50-4C53-B743-8D117E3ECE4A}" name="Agency Types" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{58B534E1-8DF2-4E15-9B63-E8E5CE4FC053}" name="Min Employees" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{58B534E1-8DF2-4E15-9B63-E8E5CE4FC053}" name="Seed" dataDxfId="5"/>
     <tableColumn id="16" xr3:uid="{2D9E29CC-7D4B-4671-B6C7-64D3F4E5F929}" name="Graphs look good?" dataDxfId="4"/>
     <tableColumn id="17" xr3:uid="{8AAD9B93-2E36-4B2B-A589-07D9BBE4B8B7}" name="Diagnostics" dataDxfId="3"/>
     <tableColumn id="18" xr3:uid="{B60DABEA-8F90-46B1-B10C-F75A98F8D9CF}" name="Divergent Transitions" dataDxfId="2"/>
@@ -1093,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F8C2AC-707C-4266-B23C-BD41ADE3BA75}">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,25 +1175,25 @@
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="S1" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1222,37 +1237,37 @@
         <v>19</v>
       </c>
       <c r="N2" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="1">
         <v>148</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -1279,25 +1294,25 @@
         <v>19</v>
       </c>
       <c r="N3" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="1">
         <v>3</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -1336,25 +1351,25 @@
         <v>19</v>
       </c>
       <c r="N4" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q4" s="1">
         <v>179</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -1393,25 +1408,25 @@
         <v>19</v>
       </c>
       <c r="N5" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -1450,25 +1465,25 @@
         <v>19</v>
       </c>
       <c r="N6" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="1">
         <v>1</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -1507,37 +1522,37 @@
         <v>19</v>
       </c>
       <c r="N7" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="Q7" s="1">
         <v>0</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>17</v>
@@ -1564,37 +1579,37 @@
         <v>19</v>
       </c>
       <c r="N8" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>17</v>
@@ -1621,34 +1636,34 @@
         <v>19</v>
       </c>
       <c r="N9" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q9" s="1">
         <v>0</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
@@ -1678,34 +1693,34 @@
         <v>19</v>
       </c>
       <c r="N10" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="1">
         <v>5</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>17</v>
@@ -1735,37 +1750,37 @@
         <v>19</v>
       </c>
       <c r="N11" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="1">
         <v>0</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -1792,37 +1807,37 @@
         <v>19</v>
       </c>
       <c r="N12" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="1">
         <v>56</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>17</v>
@@ -1849,39 +1864,39 @@
         <v>19</v>
       </c>
       <c r="N13" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="1">
         <v>588</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
@@ -1908,34 +1923,34 @@
         <v>19</v>
       </c>
       <c r="N14" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>17</v>
@@ -1965,34 +1980,34 @@
         <v>19</v>
       </c>
       <c r="N15" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q15" s="1">
         <v>2</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>17</v>
@@ -2022,39 +2037,39 @@
         <v>19</v>
       </c>
       <c r="N16" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -2081,37 +2096,37 @@
         <v>19</v>
       </c>
       <c r="N17" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="1">
         <v>1</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>17</v>
@@ -2138,37 +2153,37 @@
         <v>19</v>
       </c>
       <c r="N18" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="1">
         <v>2</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>17</v>
@@ -2195,34 +2210,34 @@
         <v>19</v>
       </c>
       <c r="N19" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="1">
         <v>0</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>17</v>
@@ -2252,34 +2267,34 @@
         <v>19</v>
       </c>
       <c r="N20" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="1">
         <v>6</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>17</v>
@@ -2309,37 +2324,37 @@
         <v>19</v>
       </c>
       <c r="N21" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q21" s="1">
         <v>221</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -2366,39 +2381,39 @@
         <v>19</v>
       </c>
       <c r="N22" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="1">
         <v>69</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>17</v>
@@ -2425,39 +2440,39 @@
         <v>19</v>
       </c>
       <c r="N23" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q23" s="1">
         <v>33</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>17</v>
@@ -2484,34 +2499,34 @@
         <v>19</v>
       </c>
       <c r="N24" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q24" s="1">
         <v>0</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>17</v>
@@ -2541,34 +2556,34 @@
         <v>19</v>
       </c>
       <c r="N25" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="Q25" s="1">
         <v>0</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>17</v>
@@ -2598,27 +2613,27 @@
         <v>19</v>
       </c>
       <c r="N26" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="Q26" s="1">
         <v>0</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>13</v>
@@ -2657,25 +2672,25 @@
         <v>19</v>
       </c>
       <c r="N27" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q27" s="1">
         <v>15</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
@@ -2714,34 +2729,34 @@
         <v>19</v>
       </c>
       <c r="N28" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q28" s="1">
         <v>0</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>17</v>
@@ -2771,34 +2786,34 @@
         <v>19</v>
       </c>
       <c r="N29" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q29" s="1">
         <v>8</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>17</v>
@@ -2828,34 +2843,34 @@
         <v>19</v>
       </c>
       <c r="N30" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q30" s="1">
         <v>0</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>17</v>
@@ -2885,34 +2900,34 @@
         <v>19</v>
       </c>
       <c r="N31" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q31" s="1">
         <v>0</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>17</v>
@@ -2942,31 +2957,39 @@
         <v>19</v>
       </c>
       <c r="N32" s="1">
-        <v>3000</v>
-      </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
+        <v>3710</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>7</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -2991,26 +3014,34 @@
         <v>19</v>
       </c>
       <c r="N33" s="1">
-        <v>3000</v>
-      </c>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
+        <v>3710</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>6</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>17</v>
@@ -3040,26 +3071,32 @@
         <v>19</v>
       </c>
       <c r="N34" s="1">
-        <v>3000</v>
-      </c>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
+        <v>3710</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>17</v>
@@ -3089,26 +3126,32 @@
         <v>19</v>
       </c>
       <c r="N35" s="1">
-        <v>3000</v>
-      </c>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
+        <v>3710</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>17</v>
@@ -3138,38 +3181,44 @@
         <v>19</v>
       </c>
       <c r="N36" s="1">
-        <v>3000</v>
-      </c>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
+        <v>3710</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="I37" s="1">
         <v>6000</v>
@@ -3187,7 +3236,7 @@
         <v>19</v>
       </c>
       <c r="N37" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -3197,21 +3246,21 @@
     </row>
     <row r="38" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G38" s="4" t="s">
@@ -3236,13 +3285,62 @@
         <v>19</v>
       </c>
       <c r="N38" s="1">
-        <v>3000</v>
+        <v>3710</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J39" s="1">
+        <v>12</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1010</v>
+      </c>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3256,10 +3354,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E49AD0-618B-4402-88D5-92A9081F9A87}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3271,13 +3369,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -3285,10 +3383,10 @@
         <v>44588</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -3296,10 +3394,32 @@
         <v>44588</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>44594</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>44594</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/model_list.xlsx
+++ b/model_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blain\Documents\dynamic_bulldoze2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF49AFA-1F73-49C6-98B6-D2824907240F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D44E0EC-51FF-4D9C-AC5C-7F4F0D32A1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="115">
   <si>
     <t>Model Name</t>
   </si>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F8C2AC-707C-4266-B23C-BD41ADE3BA75}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3082,7 +3082,9 @@
       <c r="Q34" s="1">
         <v>0</v>
       </c>
-      <c r="R34" s="1"/>
+      <c r="R34" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -3137,7 +3139,9 @@
       <c r="Q35" s="1">
         <v>0</v>
       </c>
-      <c r="R35" s="1"/>
+      <c r="R35" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -3192,7 +3196,9 @@
       <c r="Q36" s="1">
         <v>0</v>
       </c>
-      <c r="R36" s="1"/>
+      <c r="R36" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">

--- a/model_list.xlsx
+++ b/model_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blain\Documents\dynamic_bulldoze2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D44E0EC-51FF-4D9C-AC5C-7F4F0D32A1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60E13E3-F651-4A8C-B147-BD367C2D7A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
   </bookViews>
   <sheets>
     <sheet name="Model List" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="117">
   <si>
     <t>Model Name</t>
   </si>
@@ -380,6 +380,12 @@
   </si>
   <si>
     <t>mixed</t>
+  </si>
+  <si>
+    <t>model39</t>
+  </si>
+  <si>
+    <t>model 27 and 29 seem to be okay for expertese</t>
   </si>
 </sst>
 </file>
@@ -784,8 +790,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}" name="Table1" displayName="Table1" ref="A1:S39" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:S39" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}" name="Table1" displayName="Table1" ref="A1:S40" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:S40" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="6000"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="0.99"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{DEA7E344-1BCD-4196-A409-53BB68C8457E}" name="Model Name" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{1C39A7BC-A66E-49C6-8296-E0297D895ADC}" name="Latent Names" dataDxfId="17"/>
@@ -1108,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F8C2AC-707C-4266-B23C-BD41ADE3BA75}">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1213,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1253,7 +1270,7 @@
       </c>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1310,7 +1327,7 @@
       </c>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1367,7 +1384,7 @@
       </c>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1424,7 +1441,7 @@
       </c>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1481,7 +1498,7 @@
       </c>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1538,7 +1555,7 @@
       </c>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1595,7 +1612,7 @@
       </c>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1652,7 +1669,7 @@
       </c>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1709,7 +1726,7 @@
       </c>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1766,7 +1783,7 @@
       </c>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1823,7 +1840,7 @@
       </c>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1882,7 +1899,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1939,7 +1956,7 @@
       </c>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1996,7 +2013,7 @@
       </c>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -2055,7 +2072,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -2112,7 +2129,7 @@
       </c>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -2169,7 +2186,7 @@
       </c>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -2226,7 +2243,7 @@
       </c>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -2283,7 +2300,7 @@
       </c>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,7 +2357,7 @@
       </c>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -2399,7 +2416,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
@@ -2458,7 +2475,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -2515,7 +2532,7 @@
       </c>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2572,7 +2589,7 @@
       </c>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
@@ -2631,7 +2648,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -2745,7 +2762,7 @@
       </c>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>78</v>
       </c>
@@ -3299,7 +3316,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>109</v>
       </c>
@@ -3347,6 +3364,55 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>8000</v>
+      </c>
+      <c r="J40" s="1">
+        <v>12</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1010</v>
+      </c>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3360,10 +3426,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E49AD0-618B-4402-88D5-92A9081F9A87}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3428,6 +3494,17 @@
         <v>114</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>44596</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/model_list.xlsx
+++ b/model_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blain\Documents\dynamic_bulldoze2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60E13E3-F651-4A8C-B147-BD367C2D7A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921B6FE4-0241-4760-ACA4-FA149E8417C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
   </bookViews>

--- a/model_list.xlsx
+++ b/model_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blain\Documents\dynamic_bulldoze2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921B6FE4-0241-4760-ACA4-FA149E8417C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FE2D9E-E23D-462C-95A7-1A43031B5619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
   </bookViews>
   <sheets>
     <sheet name="Model List" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="156">
   <si>
     <t>Model Name</t>
   </si>
@@ -352,9 +352,6 @@
     <t>masters = 0, appt = 0</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
     <t>model37</t>
   </si>
   <si>
@@ -386,6 +383,126 @@
   </si>
   <si>
     <t>model 27 and 29 seem to be okay for expertese</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>model 39 and 34 are the same, but more iterations and different seed, it did not match the other specifications</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>model40</t>
+  </si>
+  <si>
+    <t>autonomy = appt + expert + advs + b18_dng_r</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>model41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autonomy = appt_and_advisor + expert </t>
+  </si>
+  <si>
+    <t>appt_and_advisor = 1</t>
+  </si>
+  <si>
+    <t>model42</t>
+  </si>
+  <si>
+    <t>autonomy = appt_and_advisor + expert +b18_dng_r</t>
+  </si>
+  <si>
+    <t>model43</t>
+  </si>
+  <si>
+    <t>expertese = masters + salary + n_index</t>
+  </si>
+  <si>
+    <t>model44</t>
+  </si>
+  <si>
+    <t>expertese = masters + salary + bud_dng_index</t>
+  </si>
+  <si>
+    <t>model45</t>
+  </si>
+  <si>
+    <t>expertese = masters + salary + n_index + bud_dng_index</t>
+  </si>
+  <si>
+    <t>expertese = masters + salary + n_index + admin_pct</t>
+  </si>
+  <si>
+    <t>model46</t>
+  </si>
+  <si>
+    <t>model47</t>
+  </si>
+  <si>
+    <t>expertese = masters + salary + bud_dng_index + admin_pct</t>
+  </si>
+  <si>
+    <t>model48</t>
+  </si>
+  <si>
+    <t>expertese = masters + salary + bud_dng_index + admin_pct + n_index</t>
+  </si>
+  <si>
+    <t>model49</t>
+  </si>
+  <si>
+    <t>expertese = masters + salary + LOSavg + n_index</t>
+  </si>
+  <si>
+    <t>model50</t>
+  </si>
+  <si>
+    <t>expertese = masters + salary + LOSavg + bud_dng_index</t>
+  </si>
+  <si>
+    <t>model51</t>
+  </si>
+  <si>
+    <t>expertese = masters + salary + LOSavg + n_index + bud_dng_index</t>
+  </si>
+  <si>
+    <t>model52</t>
+  </si>
+  <si>
+    <t>expertese = masters + salary + LOSavg + n_index + admin_pct</t>
+  </si>
+  <si>
+    <t>model53</t>
+  </si>
+  <si>
+    <t>expertese = masters + salary + LOSavg + bud_dng_index + admin_pct</t>
+  </si>
+  <si>
+    <t>model54</t>
+  </si>
+  <si>
+    <t>expertese = masters + salary + LOSavg + bud_dng_index + admin_pct + n_index</t>
+  </si>
+  <si>
+    <t>chains not mixing, looks like a sign thing</t>
+  </si>
+  <si>
+    <t>chains look good, needs more samples</t>
+  </si>
+  <si>
+    <t>Okay, autonomy trends different than only autonomy runs</t>
+  </si>
+  <si>
+    <t>model 36 and 37 are the same except for the order of latent variables, they are close. I think they could conform with more iterations</t>
   </si>
 </sst>
 </file>
@@ -471,7 +588,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -790,39 +921,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}" name="Table1" displayName="Table1" ref="A1:S40" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:S40" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="6000"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="0.99"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{DEA7E344-1BCD-4196-A409-53BB68C8457E}" name="Model Name" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{1C39A7BC-A66E-49C6-8296-E0297D895ADC}" name="Latent Names" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{158F934E-28CD-47AE-B1D3-1F91CF9A5149}" name="Manifest Vars" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{A4881F5E-45E3-482E-B02A-680573C9D6FE}" name="Lambda" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{17B9CD66-6106-4C0E-94F2-90C2048363F9}" name="Manifest Mean" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{D30B01BB-1C06-4E44-83F3-2D0C516619CE}" name="Manifest Covariance" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{92A3EC06-3E20-49A1-8A41-EB0DB1A15ABD}" name="CINT" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{9E557FBE-84CA-4A78-8DAF-26453E2E98CE}" name="T0 Mean" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{416D67AB-FD31-4D41-87AB-1DEAB2B7F787}" name="Iterations" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{86BAF4CB-64F1-4928-A591-A7BAC7E6FDF4}" name="Treedepth" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{9CFF8B16-FF31-4C42-9081-B4E778E0C39A}" name="Adaptive Delta" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{41F51882-A1FA-42CC-94E4-87EFD6F6EB60}" name="years" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{BBEC60D9-FD50-4C53-B743-8D117E3ECE4A}" name="Agency Types" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{58B534E1-8DF2-4E15-9B63-E8E5CE4FC053}" name="Seed" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{2D9E29CC-7D4B-4671-B6C7-64D3F4E5F929}" name="Graphs look good?" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{8AAD9B93-2E36-4B2B-A589-07D9BBE4B8B7}" name="Diagnostics" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{B60DABEA-8F90-46B1-B10C-F75A98F8D9CF}" name="Divergent Transitions" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{C50193BD-5DFC-4674-BDFB-175F1DD50F6D}" name="Complete?" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{2AFD3086-81AD-4E32-89F0-58151527FDDD}" name="Notes" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}" name="Table1" displayName="Table1" ref="A1:T55" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:T55" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{DEA7E344-1BCD-4196-A409-53BB68C8457E}" name="Model Name" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{1C39A7BC-A66E-49C6-8296-E0297D895ADC}" name="Latent Names" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{158F934E-28CD-47AE-B1D3-1F91CF9A5149}" name="Manifest Vars" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{A4881F5E-45E3-482E-B02A-680573C9D6FE}" name="Lambda" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{17B9CD66-6106-4C0E-94F2-90C2048363F9}" name="Manifest Mean" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{D30B01BB-1C06-4E44-83F3-2D0C516619CE}" name="Manifest Covariance" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{92A3EC06-3E20-49A1-8A41-EB0DB1A15ABD}" name="CINT" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{9E557FBE-84CA-4A78-8DAF-26453E2E98CE}" name="T0 Mean" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{416D67AB-FD31-4D41-87AB-1DEAB2B7F787}" name="Iterations" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{86BAF4CB-64F1-4928-A591-A7BAC7E6FDF4}" name="Treedepth" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{9CFF8B16-FF31-4C42-9081-B4E778E0C39A}" name="Adaptive Delta" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{41F51882-A1FA-42CC-94E4-87EFD6F6EB60}" name="years" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{BBEC60D9-FD50-4C53-B743-8D117E3ECE4A}" name="Agency Types" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{58B534E1-8DF2-4E15-9B63-E8E5CE4FC053}" name="Seed" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{2D9E29CC-7D4B-4671-B6C7-64D3F4E5F929}" name="Graphs look good?" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{8AAD9B93-2E36-4B2B-A589-07D9BBE4B8B7}" name="Diagnostics" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{B60DABEA-8F90-46B1-B10C-F75A98F8D9CF}" name="Divergent Transitions" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{C50193BD-5DFC-4674-BDFB-175F1DD50F6D}" name="Complete?" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{2AFD3086-81AD-4E32-89F0-58151527FDDD}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{47E7EF4E-294F-4E6C-9913-2C976D5E5E90}" name="Data" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1125,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F8C2AC-707C-4266-B23C-BD41ADE3BA75}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,14 +1268,14 @@
     <col min="12" max="12" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.85546875" customWidth="1"/>
-    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="49.5703125" customWidth="1"/>
     <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1195,7 +1316,7 @@
         <v>34</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>26</v>
@@ -1212,8 +1333,11 @@
       <c r="S1" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T1" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1269,8 +1393,11 @@
         <v>58</v>
       </c>
       <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T2" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1326,8 +1453,11 @@
         <v>58</v>
       </c>
       <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,8 +1513,11 @@
         <v>58</v>
       </c>
       <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T4" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1440,8 +1573,11 @@
         <v>58</v>
       </c>
       <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T5" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1497,8 +1633,11 @@
         <v>58</v>
       </c>
       <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T6" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1554,8 +1693,11 @@
         <v>58</v>
       </c>
       <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T7" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1611,8 +1753,11 @@
         <v>58</v>
       </c>
       <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T8" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1668,8 +1813,11 @@
         <v>58</v>
       </c>
       <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T9" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1725,8 +1873,11 @@
         <v>58</v>
       </c>
       <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T10" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1782,8 +1933,11 @@
         <v>58</v>
       </c>
       <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T11" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1839,8 +1993,11 @@
         <v>58</v>
       </c>
       <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T12" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1898,8 +2055,11 @@
       <c r="S13" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T13" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1955,8 +2115,11 @@
         <v>58</v>
       </c>
       <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T14" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -2012,8 +2175,11 @@
         <v>58</v>
       </c>
       <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T15" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -2071,8 +2237,11 @@
       <c r="S16" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T16" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,8 +2297,11 @@
         <v>58</v>
       </c>
       <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T17" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -2185,8 +2357,11 @@
         <v>58</v>
       </c>
       <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T18" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -2242,8 +2417,11 @@
         <v>58</v>
       </c>
       <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T19" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -2299,8 +2477,11 @@
         <v>58</v>
       </c>
       <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T20" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -2356,8 +2537,11 @@
         <v>58</v>
       </c>
       <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T21" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -2415,8 +2599,11 @@
       <c r="S22" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T22" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
@@ -2474,8 +2661,11 @@
       <c r="S23" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T23" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -2531,8 +2721,11 @@
         <v>58</v>
       </c>
       <c r="S24" s="1"/>
-    </row>
-    <row r="25" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T24" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2588,8 +2781,11 @@
         <v>58</v>
       </c>
       <c r="S25" s="1"/>
-    </row>
-    <row r="26" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T25" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
@@ -2647,8 +2843,11 @@
       <c r="S26" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T26" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -2704,8 +2903,11 @@
         <v>58</v>
       </c>
       <c r="S27" s="1"/>
-    </row>
-    <row r="28" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="T27" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>77</v>
       </c>
@@ -2761,8 +2963,11 @@
         <v>58</v>
       </c>
       <c r="S28" s="1"/>
-    </row>
-    <row r="29" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T28" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>78</v>
       </c>
@@ -2818,8 +3023,11 @@
         <v>58</v>
       </c>
       <c r="S29" s="1"/>
-    </row>
-    <row r="30" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="T29" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
@@ -2875,8 +3083,11 @@
         <v>58</v>
       </c>
       <c r="S30" s="1"/>
-    </row>
-    <row r="31" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="T30" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
@@ -2932,8 +3143,11 @@
         <v>58</v>
       </c>
       <c r="S31" s="1"/>
-    </row>
-    <row r="32" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="T31" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>86</v>
       </c>
@@ -2977,7 +3191,7 @@
         <v>3710</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>66</v>
@@ -2989,8 +3203,11 @@
         <v>58</v>
       </c>
       <c r="S32" s="1"/>
-    </row>
-    <row r="33" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="T32" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>90</v>
       </c>
@@ -3034,7 +3251,7 @@
         <v>3710</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>63</v>
@@ -3046,8 +3263,11 @@
         <v>58</v>
       </c>
       <c r="S33" s="1"/>
-    </row>
-    <row r="34" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="T33" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>95</v>
       </c>
@@ -3103,8 +3323,11 @@
         <v>58</v>
       </c>
       <c r="S34" s="1"/>
-    </row>
-    <row r="35" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="T34" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>97</v>
       </c>
@@ -3148,7 +3371,7 @@
         <v>3710</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>66</v>
@@ -3160,8 +3383,11 @@
         <v>58</v>
       </c>
       <c r="S35" s="1"/>
-    </row>
-    <row r="36" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="T35" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -3217,8 +3443,11 @@
         <v>58</v>
       </c>
       <c r="S36" s="1"/>
-    </row>
-    <row r="37" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="T36" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>103</v>
       </c>
@@ -3240,8 +3469,8 @@
       <c r="G37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>105</v>
+      <c r="H37" s="4">
+        <v>0</v>
       </c>
       <c r="I37" s="1">
         <v>6000</v>
@@ -3261,15 +3490,26 @@
       <c r="N37" s="1">
         <v>3710</v>
       </c>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
+      <c r="O37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S37" s="1"/>
-    </row>
-    <row r="38" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="T37" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>91</v>
@@ -3281,7 +3521,7 @@
         <v>93</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>17</v>
@@ -3310,15 +3550,26 @@
       <c r="N38" s="1">
         <v>3710</v>
       </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
+      <c r="O38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S38" s="1"/>
-    </row>
-    <row r="39" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T38" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>13</v>
@@ -3362,12 +3613,17 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
+      <c r="R39" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S39" s="1"/>
-    </row>
-    <row r="40" spans="1:19" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T39" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>36</v>
@@ -3411,8 +3667,913 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
+      <c r="R40" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S40" s="1"/>
+      <c r="T40" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J41" s="1">
+        <v>12</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>4</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J42" s="1">
+        <v>12</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N42" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J43" s="1">
+        <v>12</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N43" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>409</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J44" s="1">
+        <v>12</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J45" s="1">
+        <v>12</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N45" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J46" s="1">
+        <v>12</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N46" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J47" s="1">
+        <v>12</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J48" s="1">
+        <v>12</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J49" s="1">
+        <v>12</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>3</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J50" s="1">
+        <v>12</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N50" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J51" s="1">
+        <v>12</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N51" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J52" s="1">
+        <v>12</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N52" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>1</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J53" s="1">
+        <v>12</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N53" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J54" s="1">
+        <v>12</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N54" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>0</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J55" s="1">
+        <v>12</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N55" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>0</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3426,10 +4587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E49AD0-618B-4402-88D5-92A9081F9A87}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3477,7 +4638,7 @@
         <v>44594</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -3488,10 +4649,10 @@
         <v>44594</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
         <v>113</v>
-      </c>
-      <c r="C5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3499,9 +4660,31 @@
         <v>44596</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>44601</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>44603</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" t="s">
         <v>65</v>
       </c>
     </row>

--- a/model_list.xlsx
+++ b/model_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blain\Documents\dynamic_bulldoze2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FE2D9E-E23D-462C-95A7-1A43031B5619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AA231B-2734-4B54-A938-B01EB17ECD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Thoughts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="162">
   <si>
     <t>Model Name</t>
   </si>
@@ -503,6 +504,24 @@
   </si>
   <si>
     <t>model 36 and 37 are the same except for the order of latent variables, they are close. I think they could conform with more iterations</t>
+  </si>
+  <si>
+    <t>model55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autonomy = appt +  advs </t>
+  </si>
+  <si>
+    <t>model56</t>
+  </si>
+  <si>
+    <t>autonomy = appt +  advs + b18_dng_r</t>
+  </si>
+  <si>
+    <t>model57</t>
+  </si>
+  <si>
+    <t>autonomy = appt_and_advisor + b18_dng_r</t>
   </si>
 </sst>
 </file>
@@ -921,8 +940,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}" name="Table1" displayName="Table1" ref="A1:T55" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:T55" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}" name="Table1" displayName="Table1" ref="A1:T68" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:T68" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{DEA7E344-1BCD-4196-A409-53BB68C8457E}" name="Model Name" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{1C39A7BC-A66E-49C6-8296-E0297D895ADC}" name="Latent Names" dataDxfId="18"/>
@@ -1246,18 +1265,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F8C2AC-707C-4266-B23C-BD41ADE3BA75}">
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" topLeftCell="E34" workbookViewId="0">
+      <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1269,7 +1288,7 @@
     <col min="13" max="13" width="30.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.85546875" customWidth="1"/>
     <col min="15" max="15" width="49.5703125" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="43" customWidth="1"/>
     <col min="17" max="17" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="34.42578125" bestFit="1" customWidth="1"/>
@@ -4574,6 +4593,378 @@
       <c r="T55" s="1" t="s">
         <v>122</v>
       </c>
+    </row>
+    <row r="56" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J56" s="1">
+        <v>12</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N56" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J57" s="1">
+        <v>12</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N57" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+    </row>
+    <row r="58" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J58" s="1">
+        <v>12</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N58" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+    </row>
+    <row r="59" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+    </row>
+    <row r="60" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+    </row>
+    <row r="61" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+    </row>
+    <row r="62" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+    </row>
+    <row r="64" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+    </row>
+    <row r="65" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+    </row>
+    <row r="66" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+    </row>
+    <row r="67" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+    </row>
+    <row r="68" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/model_list.xlsx
+++ b/model_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blain\Documents\dynamic_bulldoze2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AA231B-2734-4B54-A938-B01EB17ECD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB2AA7D-2A9A-4976-9DC8-763F58D41DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="174">
   <si>
     <t>Model Name</t>
   </si>
@@ -522,6 +522,42 @@
   </si>
   <si>
     <t>autonomy = appt_and_advisor + b18_dng_r</t>
+  </si>
+  <si>
+    <t>model58</t>
+  </si>
+  <si>
+    <t>autonomy = appt + adv + doc</t>
+  </si>
+  <si>
+    <t>model59</t>
+  </si>
+  <si>
+    <t>autonomy = appt + adv + b18_dng_r + doc</t>
+  </si>
+  <si>
+    <t>model60</t>
+  </si>
+  <si>
+    <t>autonomy = appt_and_advisor + b18_dng_r + doc</t>
+  </si>
+  <si>
+    <t>model61</t>
+  </si>
+  <si>
+    <t>expertese = salary + LOSavg + n_index</t>
+  </si>
+  <si>
+    <t>model62</t>
+  </si>
+  <si>
+    <t>expertese = salary + LOSavg + bud_dng_index</t>
+  </si>
+  <si>
+    <t>model63</t>
+  </si>
+  <si>
+    <t>expertese = salary + LOSavg + n_index + bud_dng_index</t>
   </si>
 </sst>
 </file>
@@ -1267,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F8C2AC-707C-4266-B23C-BD41ADE3BA75}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E34" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4694,7 +4730,9 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
+      <c r="T57" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="58" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
@@ -4744,139 +4782,321 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
+      <c r="T58" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="59" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J59" s="1">
+        <v>12</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59" s="1">
+        <v>3710</v>
+      </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
+      <c r="T59" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="60" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J60" s="1">
+        <v>12</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N60" s="1">
+        <v>3710</v>
+      </c>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
+      <c r="T60" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="61" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J61" s="1">
+        <v>12</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N61" s="1">
+        <v>3710</v>
+      </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
+      <c r="T61" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="62" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J62" s="1">
+        <v>12</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N62" s="1">
+        <v>3710</v>
+      </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
+      <c r="T62" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="63" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J63" s="1">
+        <v>12</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N63" s="1">
+        <v>3710</v>
+      </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
+      <c r="T63" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="64" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J64" s="1">
+        <v>12</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N64" s="1">
+        <v>3710</v>
+      </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
+      <c r="T64" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="65" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>

--- a/model_list.xlsx
+++ b/model_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blain\Documents\dynamic_bulldoze2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB2AA7D-2A9A-4976-9DC8-763F58D41DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802B1D98-E6F4-4D08-B1B8-24DD39B73D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="180">
   <si>
     <t>Model Name</t>
   </si>
@@ -558,6 +558,24 @@
   </si>
   <si>
     <t>expertese = salary + LOSavg + n_index + bud_dng_index</t>
+  </si>
+  <si>
+    <t>model64</t>
+  </si>
+  <si>
+    <t>expertese = salary + LOSavg + n_index + admin_pct</t>
+  </si>
+  <si>
+    <t>model65</t>
+  </si>
+  <si>
+    <t>expertese = salary + LOSavg + bud_dng_index + admin_pct</t>
+  </si>
+  <si>
+    <t>model66</t>
+  </si>
+  <si>
+    <t>expertese = salary + LOSavg + bud_dng_index + admin_pct + n_index</t>
   </si>
 </sst>
 </file>
@@ -1303,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F8C2AC-707C-4266-B23C-BD41ADE3BA75}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5099,70 +5117,160 @@
       </c>
     </row>
     <row r="65" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J65" s="1">
+        <v>12</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N65" s="1">
+        <v>3710</v>
+      </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
+      <c r="T65" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="66" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J66" s="1">
+        <v>12</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N66" s="1">
+        <v>3710</v>
+      </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
+      <c r="T66" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="67" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J67" s="1">
+        <v>12</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N67" s="1">
+        <v>3710</v>
+      </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
+      <c r="T67" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="68" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>

--- a/model_list.xlsx
+++ b/model_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blain\Documents\dynamic_bulldoze2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802B1D98-E6F4-4D08-B1B8-24DD39B73D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856FB4A9-CED7-40B4-BE04-97B307340041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Thoughts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="187">
   <si>
     <t>Model Name</t>
   </si>
@@ -576,6 +575,27 @@
   </si>
   <si>
     <t>expertese = salary + LOSavg + bud_dng_index + admin_pct + n_index</t>
+  </si>
+  <si>
+    <t>Looks stuck to appt_pct</t>
+  </si>
+  <si>
+    <t>chains look a bit patterned</t>
+  </si>
+  <si>
+    <t>model67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autonomy = advs + appt </t>
+  </si>
+  <si>
+    <t>advs = 1</t>
+  </si>
+  <si>
+    <t>Same as model 65, but manifest switched</t>
+  </si>
+  <si>
+    <t>Might be stuck on app_and_advisor</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1342,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4691,10 +4711,18 @@
       <c r="N56" s="1">
         <v>3710</v>
       </c>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
+      <c r="O56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S56" s="1"/>
       <c r="T56" s="1" t="s">
         <v>122</v>
@@ -4743,10 +4771,18 @@
       <c r="N57" s="1">
         <v>3710</v>
       </c>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
+      <c r="O57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>6</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1" t="s">
         <v>122</v>
@@ -4795,10 +4831,18 @@
       <c r="N58" s="1">
         <v>3710</v>
       </c>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
+      <c r="O58" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S58" s="1"/>
       <c r="T58" s="1" t="s">
         <v>122</v>
@@ -4850,7 +4894,9 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
+      <c r="R59" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S59" s="1"/>
       <c r="T59" s="1" t="s">
         <v>122</v>
@@ -5273,26 +5319,58 @@
       </c>
     </row>
     <row r="68" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J68" s="1">
+        <v>12</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N68" s="1">
+        <v>3710</v>
+      </c>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
+      <c r="S68" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/model_list.xlsx
+++ b/model_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blain\Documents\dynamic_bulldoze2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856FB4A9-CED7-40B4-BE04-97B307340041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D69B2B9-B622-439D-B830-DABD6A98A878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="197">
   <si>
     <t>Model Name</t>
   </si>
@@ -592,10 +592,40 @@
     <t>advs = 1</t>
   </si>
   <si>
-    <t>Same as model 65, but manifest switched</t>
-  </si>
-  <si>
     <t>Might be stuck on app_and_advisor</t>
+  </si>
+  <si>
+    <t>Doc_pct is kinda weird looking</t>
+  </si>
+  <si>
+    <t>model68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autonomy = doc + appt + adv </t>
+  </si>
+  <si>
+    <t>doc = 1</t>
+  </si>
+  <si>
+    <t>Same as 58, but manifest order changed</t>
+  </si>
+  <si>
+    <t>chains sign problem</t>
+  </si>
+  <si>
+    <t>Stuck on doc_pct</t>
+  </si>
+  <si>
+    <t>Same as model 55, but manifest switched</t>
+  </si>
+  <si>
+    <t>model69</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Same as model 66, but all agency types</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1044,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}" name="Table1" displayName="Table1" ref="A1:T68" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:T68" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}" name="Table1" displayName="Table1" ref="A1:T76" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:T76" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{DEA7E344-1BCD-4196-A409-53BB68C8457E}" name="Model Name" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{1C39A7BC-A66E-49C6-8296-E0297D895ADC}" name="Latent Names" dataDxfId="18"/>
@@ -1339,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F8C2AC-707C-4266-B23C-BD41ADE3BA75}">
-  <dimension ref="A1:T68"/>
+  <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="R59" sqref="R59"/>
+      <selection activeCell="R70" sqref="R70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4832,7 +4862,7 @@
         <v>3710</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>63</v>
@@ -4891,9 +4921,15 @@
       <c r="N59" s="1">
         <v>3710</v>
       </c>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
+      <c r="O59" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>0</v>
+      </c>
       <c r="R59" s="1" t="s">
         <v>58</v>
       </c>
@@ -4945,10 +4981,18 @@
       <c r="N60" s="1">
         <v>3710</v>
       </c>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
+      <c r="O60" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>0</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S60" s="1"/>
       <c r="T60" s="1" t="s">
         <v>122</v>
@@ -4997,10 +5041,18 @@
       <c r="N61" s="1">
         <v>3710</v>
       </c>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
+      <c r="O61" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>4</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S61" s="1"/>
       <c r="T61" s="1" t="s">
         <v>122</v>
@@ -5049,10 +5101,18 @@
       <c r="N62" s="1">
         <v>3710</v>
       </c>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
+      <c r="O62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>6</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S62" s="1"/>
       <c r="T62" s="1" t="s">
         <v>122</v>
@@ -5101,10 +5161,18 @@
       <c r="N63" s="1">
         <v>3710</v>
       </c>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
+      <c r="O63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>13</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S63" s="1"/>
       <c r="T63" s="1" t="s">
         <v>122</v>
@@ -5153,10 +5221,18 @@
       <c r="N64" s="1">
         <v>3710</v>
       </c>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
+      <c r="O64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>0</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S64" s="1"/>
       <c r="T64" s="1" t="s">
         <v>122</v>
@@ -5205,10 +5281,18 @@
       <c r="N65" s="1">
         <v>3710</v>
       </c>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
+      <c r="O65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>3</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S65" s="1"/>
       <c r="T65" s="1" t="s">
         <v>122</v>
@@ -5257,10 +5341,18 @@
       <c r="N66" s="1">
         <v>3710</v>
       </c>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
+      <c r="O66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>0</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S66" s="1"/>
       <c r="T66" s="1" t="s">
         <v>122</v>
@@ -5309,10 +5401,18 @@
       <c r="N67" s="1">
         <v>3710</v>
       </c>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
+      <c r="O67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>3</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S67" s="1"/>
       <c r="T67" s="1" t="s">
         <v>122</v>
@@ -5366,11 +5466,251 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="T68" s="1" t="s">
         <v>122</v>
       </c>
+    </row>
+    <row r="69" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J69" s="1">
+        <v>12</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N69" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J70" s="1">
+        <v>12</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="N70" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+    </row>
+    <row r="72" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+    </row>
+    <row r="73" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+    </row>
+    <row r="74" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+    </row>
+    <row r="75" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+    </row>
+    <row r="76" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/model_list.xlsx
+++ b/model_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blain\Documents\dynamic_bulldoze2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D69B2B9-B622-439D-B830-DABD6A98A878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E292BC7-FAD0-44B2-918A-48242D70C21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="204">
   <si>
     <t>Model Name</t>
   </si>
@@ -76,12 +76,6 @@
     <t>model1</t>
   </si>
   <si>
-    <t>expertese</t>
-  </si>
-  <si>
-    <t>expertese = masters + salary</t>
-  </si>
-  <si>
     <t>masters = 1</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>model2</t>
   </si>
   <si>
-    <t>expertese = salary + masters</t>
-  </si>
-  <si>
     <t>salary = 1</t>
   </si>
   <si>
@@ -298,24 +289,12 @@
     <t>model31</t>
   </si>
   <si>
-    <t>expertese, autonomy</t>
-  </si>
-  <si>
-    <t>expertese = masters + salary, autonomy = appt + expert + advisor</t>
-  </si>
-  <si>
     <t>masters = 1, appt = 1</t>
   </si>
   <si>
     <t>model32</t>
   </si>
   <si>
-    <t>autonomy, expertese</t>
-  </si>
-  <si>
-    <t>autonomy = appt + expert + advisor, expertese = masters + salary</t>
-  </si>
-  <si>
     <t>appt = 1, masters = 1</t>
   </si>
   <si>
@@ -424,75 +403,39 @@
     <t>model43</t>
   </si>
   <si>
-    <t>expertese = masters + salary + n_index</t>
-  </si>
-  <si>
     <t>model44</t>
   </si>
   <si>
-    <t>expertese = masters + salary + bud_dng_index</t>
-  </si>
-  <si>
     <t>model45</t>
   </si>
   <si>
-    <t>expertese = masters + salary + n_index + bud_dng_index</t>
-  </si>
-  <si>
-    <t>expertese = masters + salary + n_index + admin_pct</t>
-  </si>
-  <si>
     <t>model46</t>
   </si>
   <si>
     <t>model47</t>
   </si>
   <si>
-    <t>expertese = masters + salary + bud_dng_index + admin_pct</t>
-  </si>
-  <si>
     <t>model48</t>
   </si>
   <si>
-    <t>expertese = masters + salary + bud_dng_index + admin_pct + n_index</t>
-  </si>
-  <si>
     <t>model49</t>
   </si>
   <si>
-    <t>expertese = masters + salary + LOSavg + n_index</t>
-  </si>
-  <si>
     <t>model50</t>
   </si>
   <si>
-    <t>expertese = masters + salary + LOSavg + bud_dng_index</t>
-  </si>
-  <si>
     <t>model51</t>
   </si>
   <si>
-    <t>expertese = masters + salary + LOSavg + n_index + bud_dng_index</t>
-  </si>
-  <si>
     <t>model52</t>
   </si>
   <si>
-    <t>expertese = masters + salary + LOSavg + n_index + admin_pct</t>
-  </si>
-  <si>
     <t>model53</t>
   </si>
   <si>
-    <t>expertese = masters + salary + LOSavg + bud_dng_index + admin_pct</t>
-  </si>
-  <si>
     <t>model54</t>
   </si>
   <si>
-    <t>expertese = masters + salary + LOSavg + bud_dng_index + admin_pct + n_index</t>
-  </si>
-  <si>
     <t>chains not mixing, looks like a sign thing</t>
   </si>
   <si>
@@ -544,39 +487,21 @@
     <t>model61</t>
   </si>
   <si>
-    <t>expertese = salary + LOSavg + n_index</t>
-  </si>
-  <si>
     <t>model62</t>
   </si>
   <si>
-    <t>expertese = salary + LOSavg + bud_dng_index</t>
-  </si>
-  <si>
     <t>model63</t>
   </si>
   <si>
-    <t>expertese = salary + LOSavg + n_index + bud_dng_index</t>
-  </si>
-  <si>
     <t>model64</t>
   </si>
   <si>
-    <t>expertese = salary + LOSavg + n_index + admin_pct</t>
-  </si>
-  <si>
     <t>model65</t>
   </si>
   <si>
-    <t>expertese = salary + LOSavg + bud_dng_index + admin_pct</t>
-  </si>
-  <si>
     <t>model66</t>
   </si>
   <si>
-    <t>expertese = salary + LOSavg + bud_dng_index + admin_pct + n_index</t>
-  </si>
-  <si>
     <t>Looks stuck to appt_pct</t>
   </si>
   <si>
@@ -625,7 +550,103 @@
     <t>All</t>
   </si>
   <si>
-    <t>Same as model 66, but all agency types</t>
+    <t>Same as model 66, but all agency types (actually needed to drop bud_bng_index because too many missing)</t>
+  </si>
+  <si>
+    <t>expertise</t>
+  </si>
+  <si>
+    <t>expertise = masters + salary</t>
+  </si>
+  <si>
+    <t>expertise = salary + masters</t>
+  </si>
+  <si>
+    <t>expertise, autonomy</t>
+  </si>
+  <si>
+    <t>expertise = masters + salary, autonomy = appt + expert + advisor</t>
+  </si>
+  <si>
+    <t>autonomy, expertise</t>
+  </si>
+  <si>
+    <t>autonomy = appt + expert + advisor, expertise = masters + salary</t>
+  </si>
+  <si>
+    <t>expertise = masters + salary + n_index</t>
+  </si>
+  <si>
+    <t>expertise = masters + salary + bud_dng_index</t>
+  </si>
+  <si>
+    <t>expertise = masters + salary + n_index + bud_dng_index</t>
+  </si>
+  <si>
+    <t>expertise = masters + salary + n_index + admin_pct</t>
+  </si>
+  <si>
+    <t>expertise = masters + salary + bud_dng_index + admin_pct</t>
+  </si>
+  <si>
+    <t>expertise = masters + salary + bud_dng_index + admin_pct + n_index</t>
+  </si>
+  <si>
+    <t>expertise = masters + salary + LOSavg + n_index</t>
+  </si>
+  <si>
+    <t>expertise = masters + salary + LOSavg + bud_dng_index</t>
+  </si>
+  <si>
+    <t>expertise = masters + salary + LOSavg + n_index + bud_dng_index</t>
+  </si>
+  <si>
+    <t>expertise = masters + salary + LOSavg + n_index + admin_pct</t>
+  </si>
+  <si>
+    <t>expertise = masters + salary + LOSavg + bud_dng_index + admin_pct</t>
+  </si>
+  <si>
+    <t>expertise = masters + salary + LOSavg + bud_dng_index + admin_pct + n_index</t>
+  </si>
+  <si>
+    <t>expertise = salary + LOSavg + n_index</t>
+  </si>
+  <si>
+    <t>expertise = salary + LOSavg + bud_dng_index</t>
+  </si>
+  <si>
+    <t>expertise = salary + LOSavg + n_index + bud_dng_index</t>
+  </si>
+  <si>
+    <t>expertise = salary + LOSavg + n_index + admin_pct</t>
+  </si>
+  <si>
+    <t>expertise = salary + LOSavg + bud_dng_index + admin_pct</t>
+  </si>
+  <si>
+    <t>expertise = salary + LOSavg + bud_dng_index + admin_pct + n_index</t>
+  </si>
+  <si>
+    <t>expertise = salary + LOSavg  + admin_pct + n_index</t>
+  </si>
+  <si>
+    <t>Okay, but flipped</t>
+  </si>
+  <si>
+    <t>model70</t>
+  </si>
+  <si>
+    <t>Same as 68, but more iterations, higher depth and delta</t>
+  </si>
+  <si>
+    <t>model71</t>
+  </si>
+  <si>
+    <t>autonomy = doc + appt + advs, expertise = ma + medsal + losavg + n_index</t>
+  </si>
+  <si>
+    <t>doc = 1, ma = 1</t>
   </si>
 </sst>
 </file>
@@ -1371,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F8C2AC-707C-4266-B23C-BD41ADE3BA75}">
   <dimension ref="A1:T76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="R70" sqref="R70"/>
+    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
+      <selection activeCell="P72" sqref="P72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,28 +1457,28 @@
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
@@ -1465,25 +1486,25 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1">
         <v>2000</v>
@@ -1495,55 +1516,55 @@
         <v>0.9</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N2" s="1">
         <v>3710</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="Q2" s="1">
         <v>148</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1">
         <v>2000</v>
@@ -1555,55 +1576,55 @@
         <v>0.9</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N3" s="1">
         <v>3710</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="1">
         <v>3</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1">
         <v>2000</v>
@@ -1615,52 +1636,52 @@
         <v>0.9</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N4" s="1">
         <v>3710</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="Q4" s="1">
         <v>179</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -1675,52 +1696,52 @@
         <v>0.9</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N5" s="1">
         <v>3710</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
@@ -1735,55 +1756,55 @@
         <v>0.9</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N6" s="1">
         <v>3710</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="1">
         <v>1</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1">
         <v>2000</v>
@@ -1795,55 +1816,55 @@
         <v>0.9</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N7" s="1">
         <v>3710</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I8" s="1">
         <v>2000</v>
@@ -1855,52 +1876,52 @@
         <v>0.9</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N8" s="1">
         <v>3710</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -1915,52 +1936,52 @@
         <v>0.9</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N9" s="1">
         <v>3710</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="1">
         <v>0</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -1975,55 +1996,55 @@
         <v>0.9</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N10" s="1">
         <v>3710</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="1">
         <v>5</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I11" s="1">
         <v>2000</v>
@@ -2035,55 +2056,55 @@
         <v>0.9</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N11" s="1">
         <v>3710</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="1">
         <v>0</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I12" s="1">
         <v>2000</v>
@@ -2095,55 +2116,55 @@
         <v>0.9</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N12" s="1">
         <v>3710</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="1">
         <v>56</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I13" s="1">
         <v>2000</v>
@@ -2155,54 +2176,54 @@
         <v>0.9</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N13" s="1">
         <v>3710</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="1">
         <v>588</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
@@ -2217,52 +2238,52 @@
         <v>0.9</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N14" s="1">
         <v>3710</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
@@ -2277,55 +2298,55 @@
         <v>0.9</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N15" s="1">
         <v>3710</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q15" s="1">
         <v>2</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I16" s="1">
         <v>2000</v>
@@ -2337,57 +2358,57 @@
         <v>0.9</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N16" s="1">
         <v>3710</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I17" s="1">
         <v>2000</v>
@@ -2399,55 +2420,55 @@
         <v>0.9</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N17" s="1">
         <v>3710</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="1">
         <v>1</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I18" s="1">
         <v>2000</v>
@@ -2459,52 +2480,52 @@
         <v>0.9</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N18" s="1">
         <v>3710</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q18" s="1">
         <v>2</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
@@ -2519,52 +2540,52 @@
         <v>0.9</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N19" s="1">
         <v>3710</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="1">
         <v>0</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
@@ -2579,55 +2600,55 @@
         <v>0.9</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N20" s="1">
         <v>3710</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q20" s="1">
         <v>6</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I21" s="1">
         <v>2000</v>
@@ -2639,55 +2660,55 @@
         <v>0.9</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N21" s="1">
         <v>3710</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="1">
         <v>221</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I22" s="1">
         <v>2000</v>
@@ -2699,57 +2720,57 @@
         <v>0.9</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N22" s="1">
         <v>3710</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q22" s="1">
         <v>69</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I23" s="1">
         <v>2000</v>
@@ -2761,54 +2782,54 @@
         <v>0.9</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N23" s="1">
         <v>3710</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q23" s="1">
         <v>33</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
@@ -2823,52 +2844,52 @@
         <v>0.9</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N24" s="1">
         <v>3710</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q24" s="1">
         <v>0</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H25" s="4">
         <v>0</v>
@@ -2883,55 +2904,55 @@
         <v>0.9</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N25" s="1">
         <v>3710</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q25" s="1">
         <v>0</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I26" s="1">
         <v>2000</v>
@@ -2943,54 +2964,54 @@
         <v>0.9</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N26" s="1">
         <v>3710</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q26" s="1">
         <v>0</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H27" s="4">
         <v>0</v>
@@ -3005,52 +3026,52 @@
         <v>0.9</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N27" s="1">
         <v>3710</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="1">
         <v>15</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H28" s="4">
         <v>0</v>
@@ -3065,52 +3086,52 @@
         <v>0.99</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N28" s="1">
         <v>3710</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q28" s="1">
         <v>0</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
@@ -3125,52 +3146,52 @@
         <v>0.9</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N29" s="1">
         <v>3710</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q29" s="1">
         <v>8</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H30" s="4">
         <v>0</v>
@@ -3185,52 +3206,52 @@
         <v>0.99</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N30" s="1">
         <v>3710</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q30" s="1">
         <v>0</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H31" s="4">
         <v>0</v>
@@ -3245,52 +3266,52 @@
         <v>0.99</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N31" s="1">
         <v>3710</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q31" s="1">
         <v>0</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H32" s="4">
         <v>0</v>
@@ -3305,52 +3326,52 @@
         <v>0.99</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N32" s="1">
         <v>3710</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q32" s="1">
         <v>7</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H33" s="4">
         <v>0</v>
@@ -3365,52 +3386,52 @@
         <v>0.99</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N33" s="1">
         <v>3710</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="1">
         <v>6</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H34" s="4">
         <v>0</v>
@@ -3425,52 +3446,52 @@
         <v>0.99</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N34" s="1">
         <v>3710</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q34" s="1">
         <v>0</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H35" s="4">
         <v>0</v>
@@ -3485,52 +3506,52 @@
         <v>0.99</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N35" s="1">
         <v>3710</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q35" s="1">
         <v>0</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H36" s="4">
         <v>0</v>
@@ -3545,52 +3566,52 @@
         <v>0.99</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N36" s="1">
         <v>3710</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q36" s="1">
         <v>0</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H37" s="4">
         <v>0</v>
@@ -3605,52 +3626,52 @@
         <v>0.99</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N37" s="1">
         <v>3710</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="Q37" s="1">
         <v>0</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H38" s="4">
         <v>0</v>
@@ -3665,52 +3686,52 @@
         <v>0.99</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N38" s="1">
         <v>3710</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q38" s="1">
         <v>0</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H39" s="4">
         <v>0</v>
@@ -3725,10 +3746,10 @@
         <v>0.9</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N39" s="1">
         <v>1010</v>
@@ -3737,34 +3758,34 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H40" s="4">
         <v>0</v>
@@ -3779,10 +3800,10 @@
         <v>0.99</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N40" s="1">
         <v>1010</v>
@@ -3791,34 +3812,34 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H41" s="4">
         <v>0</v>
@@ -3833,52 +3854,52 @@
         <v>0.99</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N41" s="1">
         <v>3710</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q41" s="1">
         <v>4</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H42" s="4">
         <v>0</v>
@@ -3893,52 +3914,52 @@
         <v>0.99</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N42" s="1">
         <v>3710</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q42" s="1">
         <v>0</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H43" s="4">
         <v>0</v>
@@ -3953,52 +3974,52 @@
         <v>0.99</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N43" s="1">
         <v>3710</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q43" s="1">
         <v>409</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H44" s="4">
         <v>0</v>
@@ -4013,52 +4034,52 @@
         <v>0.99</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N44" s="1">
         <v>3710</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q44" s="1">
         <v>0</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H45" s="4">
         <v>0</v>
@@ -4073,52 +4094,52 @@
         <v>0.99</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N45" s="1">
         <v>3710</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="1">
         <v>0</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H46" s="4">
         <v>0</v>
@@ -4133,52 +4154,52 @@
         <v>0.99</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N46" s="1">
         <v>3710</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q46" s="1">
         <v>0</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H47" s="4">
         <v>0</v>
@@ -4193,52 +4214,52 @@
         <v>0.99</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N47" s="1">
         <v>3710</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q47" s="1">
         <v>0</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H48" s="4">
         <v>0</v>
@@ -4253,52 +4274,52 @@
         <v>0.99</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N48" s="1">
         <v>3710</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q48" s="1">
         <v>0</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H49" s="4">
         <v>0</v>
@@ -4313,52 +4334,52 @@
         <v>0.99</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N49" s="1">
         <v>3710</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q49" s="1">
         <v>3</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H50" s="4">
         <v>0</v>
@@ -4373,52 +4394,52 @@
         <v>0.99</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N50" s="1">
         <v>3710</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q50" s="1">
         <v>0</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H51" s="4">
         <v>0</v>
@@ -4433,52 +4454,52 @@
         <v>0.99</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N51" s="1">
         <v>3710</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q51" s="1">
         <v>0</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H52" s="4">
         <v>0</v>
@@ -4493,52 +4514,52 @@
         <v>0.99</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N52" s="1">
         <v>3710</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q52" s="1">
         <v>1</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H53" s="4">
         <v>0</v>
@@ -4553,52 +4574,52 @@
         <v>0.99</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N53" s="1">
         <v>3710</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q53" s="1">
         <v>0</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H54" s="4">
         <v>0</v>
@@ -4613,52 +4634,52 @@
         <v>0.99</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N54" s="1">
         <v>3710</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q54" s="1">
         <v>0</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E55" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H55" s="4">
         <v>0</v>
@@ -4673,52 +4694,52 @@
         <v>0.99</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N55" s="1">
         <v>3710</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q55" s="1">
         <v>0</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H56" s="4">
         <v>0</v>
@@ -4733,52 +4754,52 @@
         <v>0.99</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N56" s="1">
         <v>3710</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q56" s="1">
         <v>0</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S56" s="1"/>
       <c r="T56" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H57" s="4">
         <v>0</v>
@@ -4793,52 +4814,52 @@
         <v>0.99</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N57" s="1">
         <v>3710</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="Q57" s="1">
         <v>6</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H58" s="4">
         <v>0</v>
@@ -4853,52 +4874,52 @@
         <v>0.99</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N58" s="1">
         <v>3710</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q58" s="1">
         <v>0</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S58" s="1"/>
       <c r="T58" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H59" s="4">
         <v>0</v>
@@ -4913,52 +4934,52 @@
         <v>0.99</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N59" s="1">
         <v>3710</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q59" s="1">
         <v>0</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S59" s="1"/>
       <c r="T59" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H60" s="4">
         <v>0</v>
@@ -4973,52 +4994,52 @@
         <v>0.99</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N60" s="1">
         <v>3710</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="Q60" s="1">
         <v>0</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S60" s="1"/>
       <c r="T60" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H61" s="4">
         <v>0</v>
@@ -5033,52 +5054,52 @@
         <v>0.99</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N61" s="1">
         <v>3710</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q61" s="1">
         <v>4</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S61" s="1"/>
       <c r="T61" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H62" s="4">
         <v>0</v>
@@ -5093,52 +5114,52 @@
         <v>0.99</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N62" s="1">
         <v>3710</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q62" s="1">
         <v>6</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S62" s="1"/>
       <c r="T62" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H63" s="4">
         <v>0</v>
@@ -5153,52 +5174,52 @@
         <v>0.99</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N63" s="1">
         <v>3710</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q63" s="1">
         <v>13</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S63" s="1"/>
       <c r="T63" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H64" s="4">
         <v>0</v>
@@ -5213,52 +5234,52 @@
         <v>0.99</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N64" s="1">
         <v>3710</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q64" s="1">
         <v>0</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S64" s="1"/>
       <c r="T64" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H65" s="4">
         <v>0</v>
@@ -5273,52 +5294,52 @@
         <v>0.99</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N65" s="1">
         <v>3710</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q65" s="1">
         <v>3</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S65" s="1"/>
       <c r="T65" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H66" s="4">
         <v>0</v>
@@ -5333,52 +5354,52 @@
         <v>0.99</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N66" s="1">
         <v>3710</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q66" s="1">
         <v>0</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S66" s="1"/>
       <c r="T66" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H67" s="4">
         <v>0</v>
@@ -5393,52 +5414,52 @@
         <v>0.99</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N67" s="1">
         <v>3710</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q67" s="1">
         <v>3</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S67" s="1"/>
       <c r="T67" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H68" s="4">
         <v>0</v>
@@ -5453,46 +5474,54 @@
         <v>0.99</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N68" s="1">
         <v>3710</v>
       </c>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
+      <c r="O68" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>0</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="S68" s="1" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H69" s="4">
         <v>0</v>
@@ -5507,46 +5536,54 @@
         <v>0.99</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N69" s="1">
         <v>3710</v>
       </c>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
+      <c r="O69" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>1</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="S69" s="1" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H70" s="4">
         <v>0</v>
@@ -5561,10 +5598,10 @@
         <v>0.99</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="N70" s="1">
         <v>3710</v>
@@ -5574,49 +5611,111 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>8000</v>
+      </c>
+      <c r="J71" s="1">
+        <v>15</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N71" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
+      <c r="S71" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="72" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J72" s="1">
+        <v>15</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N72" s="1">
+        <v>3710</v>
+      </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -5739,13 +5838,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
         <v>80</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -5753,10 +5852,10 @@
         <v>44588</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -5764,10 +5863,10 @@
         <v>44588</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -5775,10 +5874,10 @@
         <v>44594</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -5786,10 +5885,10 @@
         <v>44594</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5797,10 +5896,10 @@
         <v>44596</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -5808,10 +5907,10 @@
         <v>44601</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -5819,10 +5918,10 @@
         <v>44603</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/model_list.xlsx
+++ b/model_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blain\Documents\dynamic_bulldoze2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E292BC7-FAD0-44B2-918A-48242D70C21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E0F1D2-2D08-43E2-9A2A-6F44D6B0B8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="213">
   <si>
     <t>Model Name</t>
   </si>
@@ -647,6 +647,33 @@
   </si>
   <si>
     <t>doc = 1, ma = 1</t>
+  </si>
+  <si>
+    <t>model 69, more agencies seem to help estimation</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>model72</t>
+  </si>
+  <si>
+    <t>autonomy = appt + advs + top_appt + top_advs</t>
+  </si>
+  <si>
+    <t>model73</t>
+  </si>
+  <si>
+    <t>autonomy = appt + advs + top_appt + top_advs + b18_dng_r</t>
+  </si>
+  <si>
+    <t>model74</t>
+  </si>
+  <si>
+    <t>expertise, capacity</t>
+  </si>
+  <si>
+    <t>expertise = salary + LOSavg + mapct, capacity = salary + LOSavg + mapct + b18 + n_index</t>
   </si>
 </sst>
 </file>
@@ -1392,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F8C2AC-707C-4266-B23C-BD41ADE3BA75}">
   <dimension ref="A1:T76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
-      <selection activeCell="P72" sqref="P72"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5606,10 +5633,18 @@
       <c r="N70" s="1">
         <v>3710</v>
       </c>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
+      <c r="O70" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>0</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="S70" s="1" t="s">
         <v>171</v>
       </c>
@@ -5663,9 +5698,15 @@
       <c r="O71" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
+      <c r="P71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>0</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="S71" s="1" t="s">
         <v>200</v>
       </c>
@@ -5717,27 +5758,61 @@
         <v>3710</v>
       </c>
       <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
+      <c r="P72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>2</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
     <row r="73" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>8000</v>
+      </c>
+      <c r="J73" s="1">
+        <v>15</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N73" s="1">
+        <v>3710</v>
+      </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -5746,20 +5821,48 @@
       <c r="T73" s="1"/>
     </row>
     <row r="74" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="4">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>8000</v>
+      </c>
+      <c r="J74" s="1">
+        <v>15</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N74" s="1">
+        <v>3710</v>
+      </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -5768,20 +5871,48 @@
       <c r="T74" s="1"/>
     </row>
     <row r="75" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>8000</v>
+      </c>
+      <c r="J75" s="1">
+        <v>15</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N75" s="1">
+        <v>3710</v>
+      </c>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -5823,10 +5954,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E49AD0-618B-4402-88D5-92A9081F9A87}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5924,6 +6055,17 @@
         <v>62</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>44614</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/model_list.xlsx
+++ b/model_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blain\Documents\dynamic_bulldoze2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E0F1D2-2D08-43E2-9A2A-6F44D6B0B8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47C50A6-DB6D-44A7-B51E-EF6F561C4353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="219">
   <si>
     <t>Model Name</t>
   </si>
@@ -674,6 +674,24 @@
   </si>
   <si>
     <t>expertise = salary + LOSavg + mapct, capacity = salary + LOSavg + mapct + b18 + n_index</t>
+  </si>
+  <si>
+    <t>salary = 1 for expertise and sal = 1 for capacity</t>
+  </si>
+  <si>
+    <t>model75</t>
+  </si>
+  <si>
+    <t>same as 74, but different lambda structure</t>
+  </si>
+  <si>
+    <t>model76</t>
+  </si>
+  <si>
+    <t>autonomy, expertise, capacity</t>
+  </si>
+  <si>
+    <t>autonomy = appt + advs + top_appt + top_advs, expertise = salary + LOSavg + mapct, capacity = salary + LOSavg + mapct + b18 + n_index</t>
   </si>
 </sst>
 </file>
@@ -1092,8 +1110,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}" name="Table1" displayName="Table1" ref="A1:T76" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:T76" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}" name="Table1" displayName="Table1" ref="A1:T90" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:T90" xr:uid="{697D70A9-71DF-4FA7-A517-9FFA988DDD0C}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{DEA7E344-1BCD-4196-A409-53BB68C8457E}" name="Model Name" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{1C39A7BC-A66E-49C6-8296-E0297D895ADC}" name="Latent Names" dataDxfId="18"/>
@@ -1417,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F8C2AC-707C-4266-B23C-BD41ADE3BA75}">
-  <dimension ref="A1:T76"/>
+  <dimension ref="A1:T90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M77" sqref="M77"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5768,7 +5786,9 @@
         <v>55</v>
       </c>
       <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
+      <c r="T72" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="73" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
@@ -5818,7 +5838,9 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
+      <c r="T73" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="74" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -5868,7 +5890,9 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
+      <c r="T74" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="75" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
@@ -5918,29 +5942,401 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
-      <c r="T75" s="1"/>
+      <c r="T75" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="76" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>8000</v>
+      </c>
+      <c r="J76" s="1">
+        <v>15</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N76" s="1">
+        <v>3710</v>
+      </c>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="1"/>
+      <c r="S76" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>8000</v>
+      </c>
+      <c r="J77" s="1">
+        <v>15</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N77" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+    </row>
+    <row r="79" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+    </row>
+    <row r="80" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+    </row>
+    <row r="81" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+    </row>
+    <row r="82" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+    </row>
+    <row r="83" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+    </row>
+    <row r="84" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+    </row>
+    <row r="85" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+    </row>
+    <row r="86" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+    </row>
+    <row r="87" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+    </row>
+    <row r="88" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+    </row>
+    <row r="89" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+    </row>
+    <row r="90" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/model_list.xlsx
+++ b/model_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blain\Documents\dynamic_bulldoze2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47C50A6-DB6D-44A7-B51E-EF6F561C4353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AC71AE-3DEE-46B0-B0BD-4109359814FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D71CD678-1C1C-4018-B6DE-3A331793F802}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="244">
   <si>
     <t>Model Name</t>
   </si>
@@ -692,6 +692,81 @@
   </si>
   <si>
     <t>autonomy = appt + advs + top_appt + top_advs, expertise = salary + LOSavg + mapct, capacity = salary + LOSavg + mapct + b18 + n_index</t>
+  </si>
+  <si>
+    <t>model77</t>
+  </si>
+  <si>
+    <t>model78</t>
+  </si>
+  <si>
+    <t>model79</t>
+  </si>
+  <si>
+    <t>model80</t>
+  </si>
+  <si>
+    <t>model81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chains overlap, might be slightly patterened </t>
+  </si>
+  <si>
+    <t>chain sign problem</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>chains ok</t>
+  </si>
+  <si>
+    <t>model82</t>
+  </si>
+  <si>
+    <t>expertise = salary + LOSavg  + masters</t>
+  </si>
+  <si>
+    <t>model83</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>resources = n + b18</t>
+  </si>
+  <si>
+    <t>n = 1</t>
+  </si>
+  <si>
+    <t>model84</t>
+  </si>
+  <si>
+    <t>resources = logn + b18</t>
+  </si>
+  <si>
+    <t>logn = 1</t>
+  </si>
+  <si>
+    <t>model85</t>
+  </si>
+  <si>
+    <t>resources = logn + logb18</t>
+  </si>
+  <si>
+    <t>model86</t>
+  </si>
+  <si>
+    <t>n_index = 1</t>
+  </si>
+  <si>
+    <t>resources = n_index + bud_index</t>
+  </si>
+  <si>
+    <t>model87</t>
+  </si>
+  <si>
+    <t>resources = n_index + bud_index + bud_dng_index</t>
   </si>
 </sst>
 </file>
@@ -1437,15 +1512,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F8C2AC-707C-4266-B23C-BD41ADE3BA75}">
   <dimension ref="A1:T90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="163.42578125" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -6032,7 +6107,7 @@
         <v>15</v>
       </c>
       <c r="K77" s="1">
-        <v>0.999</v>
+        <v>0.99</v>
       </c>
       <c r="L77" s="4" t="s">
         <v>16</v>
@@ -6053,218 +6128,540 @@
       </c>
     </row>
     <row r="78" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="4">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J78" s="1">
+        <v>13</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N78" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>6</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
+      <c r="T78" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="79" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="4">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J79" s="1">
+        <v>13</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N79" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>4</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
+      <c r="T79" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="80" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="4">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J80" s="1">
+        <v>13</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N80" s="1">
+        <v>3710</v>
+      </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
+      <c r="T80" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="81" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="4">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J81" s="1">
+        <v>13</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N81" s="1">
+        <v>3710</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>3</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
+      <c r="T81" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="82" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="4">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J82" s="1">
+        <v>13</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N82" s="1">
+        <v>3710</v>
+      </c>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
-      <c r="T82" s="1"/>
+      <c r="T82" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="83" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J83" s="1">
+        <v>12</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N83" s="1">
+        <v>3710</v>
+      </c>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
-      <c r="T83" s="1"/>
+      <c r="T83" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="84" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" s="4">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J84" s="1">
+        <v>10</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N84" s="1">
+        <v>3710</v>
+      </c>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
-      <c r="T84" s="1"/>
+      <c r="T84" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="85" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" s="4">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J85" s="1">
+        <v>10</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N85" s="1">
+        <v>3710</v>
+      </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
+      <c r="T85" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="86" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="4">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J86" s="1">
+        <v>10</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N86" s="1">
+        <v>3710</v>
+      </c>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
+      <c r="T86" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="87" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="4">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J87" s="1">
+        <v>10</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N87" s="1">
+        <v>3710</v>
+      </c>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -6273,20 +6670,48 @@
       <c r="T87" s="1"/>
     </row>
     <row r="88" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" s="4">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J88" s="1">
+        <v>10</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N88" s="1">
+        <v>3710</v>
+      </c>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
